--- a/Database/thiet_ke_database.xlsx
+++ b/Database/thiet_ke_database.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yenkh\OneDrive\Desktop\K04_BaiGiang\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Siles java\BaiTap\huongdoituong\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B4B651E-3612-493B-AB1A-D7579BAB9F7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{5C14CBD8-624C-4CBA-939D-9059F6190E21}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20715" windowHeight="13275"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -310,19 +309,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -331,7 +330,7 @@
       <u/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -340,7 +339,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -426,10 +425,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
@@ -457,16 +456,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1375832</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>176215</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>795337</xdr:colOff>
+      <xdr:colOff>1738</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>195262</xdr:rowOff>
+      <xdr:rowOff>89959</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -477,16 +476,19 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="3"/>
+          <a:endCxn id="7" idx="1"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="2652714" y="785814"/>
-          <a:ext cx="2481260" cy="2157412"/>
+        <a:xfrm flipV="1">
+          <a:off x="2444749" y="476250"/>
+          <a:ext cx="2012572" cy="2090209"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 672"/>
+            <a:gd name="adj1" fmla="val 50000"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -512,16 +514,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1557337</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>138113</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1423988</xdr:colOff>
+      <xdr:colOff>2272</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:rowOff>100542</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -532,16 +534,19 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="9" idx="1"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2771775" y="585788"/>
-          <a:ext cx="6462713" cy="2033587"/>
+          <a:off x="2455333" y="476250"/>
+          <a:ext cx="4373189" cy="1719792"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 99963"/>
+            <a:gd name="adj1" fmla="val 91141"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -567,12 +572,12 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>423332</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>26458</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>945891</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>153458</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="384977" cy="264560"/>
+    <xdr:ext cx="429941" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="10" name="TextBox 9">
@@ -585,9 +590,9 @@
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5529791" y="2026708"/>
-          <a:ext cx="384977" cy="264560"/>
+        <a:xfrm flipH="1">
+          <a:off x="6385724" y="343958"/>
+          <a:ext cx="429941" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -609,7 +614,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
           <a:spAutoFit/>
         </a:bodyPr>
         <a:lstStyle/>
@@ -624,6 +629,246 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>10583</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>10583</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1079500" y="2106083"/>
+          <a:ext cx="1375833" cy="179917"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1068916</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1375832</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>179917</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1068916" y="2476500"/>
+          <a:ext cx="1375833" cy="179917"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1738</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>179917</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>21167</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>10583</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4457321" y="370417"/>
+          <a:ext cx="1003679" cy="211666"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2272</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>179917</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>10041</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>10583</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6828522" y="370417"/>
+          <a:ext cx="1616436" cy="211666"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -923,32 +1168,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C51A21CD-831E-40B9-AEA2-C389FD44CA76}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.9375" customWidth="1"/>
-    <col min="2" max="2" width="20.875" customWidth="1"/>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="12.625" customWidth="1"/>
-    <col min="5" max="5" width="14.75" customWidth="1"/>
-    <col min="6" max="6" width="20.8125" customWidth="1"/>
-    <col min="7" max="7" width="24.1875" customWidth="1"/>
-    <col min="8" max="8" width="20.4375" customWidth="1"/>
-    <col min="9" max="9" width="18.25" customWidth="1"/>
-    <col min="10" max="10" width="13.125" customWidth="1"/>
-    <col min="14" max="14" width="12.5" customWidth="1"/>
-    <col min="15" max="15" width="17.875" customWidth="1"/>
-    <col min="16" max="16" width="11.9375" customWidth="1"/>
-    <col min="17" max="17" width="12.9375" customWidth="1"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" customWidth="1"/>
+    <col min="16" max="16" width="12" customWidth="1"/>
+    <col min="17" max="17" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:11">
       <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
@@ -959,7 +1204,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -979,7 +1224,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:11">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -993,7 +1238,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:11">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
@@ -1004,7 +1249,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:11">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
@@ -1015,7 +1260,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:11">
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -1029,7 +1274,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:11">
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
@@ -1043,7 +1288,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:11">
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1051,18 +1296,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:11">
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="10"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:11">
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1073,7 +1318,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:11">
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1082,7 +1327,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -1096,7 +1341,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:11">
       <c r="B15" s="4" t="s">
         <v>23</v>
       </c>
@@ -1104,27 +1349,27 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:11">
       <c r="B16" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.7">
+    <row r="17" spans="2:8">
       <c r="B17" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.7">
+    <row r="18" spans="2:8">
       <c r="B18" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.7">
+    <row r="21" spans="2:8">
       <c r="B21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.7">
+    <row r="22" spans="2:8">
       <c r="B22" s="2" t="s">
         <v>9</v>
       </c>
@@ -1147,7 +1392,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.7">
+    <row r="23" spans="2:8">
       <c r="B23" s="1">
         <v>1</v>
       </c>
@@ -1170,7 +1415,7 @@
         <v>44072</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.7">
+    <row r="24" spans="2:8">
       <c r="B24" s="1">
         <v>2</v>
       </c>
@@ -1193,7 +1438,7 @@
         <v>44072</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.7">
+    <row r="25" spans="2:8">
       <c r="B25" s="1">
         <v>3</v>
       </c>
@@ -1216,12 +1461,12 @@
         <v>44072</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.7">
+    <row r="27" spans="2:8">
       <c r="B27" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.7">
+    <row r="28" spans="2:8">
       <c r="B28" s="2" t="s">
         <v>61</v>
       </c>
@@ -1241,7 +1486,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.7">
+    <row r="29" spans="2:8">
       <c r="B29" s="1">
         <v>1</v>
       </c>
@@ -1253,7 +1498,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.7">
+    <row r="30" spans="2:8">
       <c r="B30" s="1">
         <v>2</v>
       </c>
@@ -1265,7 +1510,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.7">
+    <row r="31" spans="2:8">
       <c r="B31" s="1">
         <v>3</v>
       </c>
@@ -1277,7 +1522,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.7">
+    <row r="32" spans="2:8">
       <c r="B32" s="1">
         <v>4</v>
       </c>
@@ -1289,7 +1534,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.7">
+    <row r="33" spans="2:17">
       <c r="B33" s="4">
         <v>5</v>
       </c>
@@ -1301,12 +1546,12 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.7">
+    <row r="35" spans="2:17">
       <c r="B35" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.7">
+    <row r="36" spans="2:17">
       <c r="B36" s="2" t="s">
         <v>10</v>
       </c>
@@ -1356,7 +1601,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.7">
+    <row r="37" spans="2:17">
       <c r="B37" s="1">
         <v>1</v>
       </c>
@@ -1394,7 +1639,7 @@
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.7">
+    <row r="38" spans="2:17">
       <c r="B38" s="1">
         <v>2</v>
       </c>
@@ -1432,7 +1677,7 @@
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.7">
+    <row r="39" spans="2:17">
       <c r="B39" s="1">
         <v>3</v>
       </c>
@@ -1470,7 +1715,7 @@
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.7">
+    <row r="40" spans="2:17">
       <c r="B40" s="1">
         <v>4</v>
       </c>
@@ -1508,7 +1753,7 @@
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.7">
+    <row r="41" spans="2:17">
       <c r="B41" s="1">
         <v>5</v>
       </c>
@@ -1549,11 +1794,11 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="G37" r:id="rId1" xr:uid="{05433663-CAB7-4C93-988E-55E2CF6D8BCF}"/>
-    <hyperlink ref="G38" r:id="rId2" xr:uid="{C327DB26-A87B-406E-B5DB-2E157F56E7F4}"/>
-    <hyperlink ref="G39" r:id="rId3" xr:uid="{C51ABF92-26F1-442C-9C8C-BB7C401D76AD}"/>
-    <hyperlink ref="G40" r:id="rId4" xr:uid="{4859FE24-9B76-428F-BC0B-EA07AA8FB640}"/>
-    <hyperlink ref="G41" r:id="rId5" xr:uid="{5A52DB8D-3CA6-49DC-8B14-15BD9C6BE6B3}"/>
+    <hyperlink ref="G37" r:id="rId1"/>
+    <hyperlink ref="G38" r:id="rId2"/>
+    <hyperlink ref="G39" r:id="rId3"/>
+    <hyperlink ref="G40" r:id="rId4"/>
+    <hyperlink ref="G41" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
